--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_162.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_162.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,403 +488,428 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.06361746361746362</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5397727272727273</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:min', 'C:min'], ['C:min', 'G:7', 'C:min']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(87.68, 98.02), (43.18, 45.1)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(13.648526, 21.12535), (1.129708, 6.12526)]</t>
+          <t>[('0:00:19.140000', '0:00:24.780000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:25.180000', '0:00:48.160000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:7/D', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_111</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.606060606060606</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(0.36, 7.14)]</t>
+          <t>[['G:7', 'C', 'G:7', 'C', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(37.36, 44.66)]</t>
+          <t>[('0:00:30.020000', '0:00:44.280000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:01:12.272131', '0:01:22.732721')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1053361053361053</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:min', 'F:min', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_7</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1001011122345804</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min']]</t>
+          <t>[['C#:7', 'F#:min', 'F#:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(12.394648, 21.12535)]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(27.52, 38.5)]</t>
+          <t>[('0:00:04.260000', '0:00:08.680000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+          <t>[('0:00:14.780000', '0:00:19.020000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_86</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3939393939393939</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(41.78, 56.28)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(9.74, 35.46)]</t>
+          <t>[('0:00:16.240000', '0:00:21.160000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:01:02.100000', '0:01:11.780000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1342905405405405</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:min', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_176</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1001011122345804</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'C:min']]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(2.352018, 8.679455)]</t>
+          <t>[['C#:7', 'F#:min', 'F#:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(60.854263, 66.566371)]</t>
+          <t>[('0:00:12.780000', '0:00:16.740000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+          <t>[('0:00:03.700000', '0:00:07.500000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>isophonics_268</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_14</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1213235294117647</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['D', 'G', 'A', 'A'], ['A', 'A', 'C#:min', 'F#:min'], ['A', 'A', 'A', 'C#:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(12.26, 25.04), (65.26, 71.04)]</t>
+          <t>[['D', 'G', 'A', 'A/7'], ['A', 'A', 'C#:min/5', 'F#:min'], ['A/b6', 'A/5', 'A', 'C#:min/5']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(14.78, 19.02), (32.98, 35.26)]</t>
+          <t>[('0:00:18.686825', '0:00:23.760385'), ('0:00:08.655804', '0:00:18.686825'), ('0:00:46.365011', '0:00:56.488911')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:01:21.443752', '0:01:26.183398'), ('0:01:11.018490', '0:01:19.713866'), ('0:01:27.427993', '0:01:31.614092')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:7DD7eSuYSC5xk2ArU62esN</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_166</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_99</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A#:min/C#', 'F:min/C', 'C:7', 'F:min']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(16.72, 26.46)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(43.38, 45.8)]</t>
+          <t>[('0:00:58.680000', '0:01:20.420000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:01:06.740000', '0:01:30.220000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_205</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.08760545100584036</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G#:min/B', 'C#:maj', 'C#:maj/G#']]</t>
-        </is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.2687747035573123</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['B:min', 'E', 'E/2']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(8.62, 10.72)]</t>
+          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(59.162887, 65.559465)]</t>
+          <t>[('0:00:07.760000', '0:00:15.800000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
+          <t>[('0:00:21.440000', '0:00:24.720000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:389QX9Q1eUOEZ19vtzzI9O</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_6</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_165</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.07334525939177103</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(3.9, 7.72)]</t>
+          <t>[['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(13.6, 17.78)]</t>
+          <t>[('0:00:37.540000', '0:00:42.720000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:29.500000', '0:00:31.640000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
@@ -888,317 +918,266 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['C#:maj/F', 'G#:7', 'C#:maj', 'A#:min']]</t>
-        </is>
+          <t>isophonics_149</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6153846153846154</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj', 'C:min/G']]</t>
+          <t>[['B', 'E', 'B']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(41.32, 49.38)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(110.32, 122.84)]</t>
+          <t>[('0:00:19.602494', '0:00:26.162131')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'F:maj', 'A#:min']]</t>
-        </is>
+          <t>isophonics_291</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4689655172413794</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
+          <t>[['D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(84.62, 91.74), (15.6, 24.08)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(9.62, 14.18), (1.88, 6.56)]</t>
+          <t>[('0:00:05.208150', '0:00:12.997936')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:02:23.580000', '0:02:29.120000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_14</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.06995192307692308</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G:7/F', 'C:maj/E', 'G:maj/D']]</t>
-        </is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'C/3']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(65.64, 70.54)]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(12.503707, 19.759943)]</t>
+          <t>[('0:00:39.020000', '0:00:57.200000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
-        </is>
-      </c>
+          <t>[('0:00:17.560000', '0:00:47.240000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_195</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_37</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(102.76, 118.78)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(9.7, 15.02)]</t>
+          <t>[('0:00:15.620000', '0:00:58.080000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:16.140000', '0:00:59.100000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_224</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1575797872340425</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'E', 'A', 'D', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_164</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_137</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'E', 'A', 'D', 'E']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(0.366281, 14.704603)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(51.315598, 63.292358)]</t>
+          <t>[('0:00:14.520000', '0:00:59.640000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
+          <t>[('0:00:14.900000', '0:00:56.280000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_8</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_100</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min']]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(14.9, 28.9)]</t>
+          <t>[['A:min', 'E:7/A', 'E:(3,5,b7,b9)/A', 'A:min', 'E:(3,5,b7,b9)/A', 'A:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(0.5, 5.58)]</t>
+          <t>[('0:00:14.440000', '0:00:47.400000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_138</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_168</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1053361053361053</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:min', 'F:min', 'C:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(12.394648, 21.12535)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(23.04, 32.8)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:14.460000', '0:00:46.680000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
